--- a/preprocessed/기존_소멸위험지수_2015-2023.xlsx
+++ b/preprocessed/기존_소멸위험지수_2015-2023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="255">
   <si>
     <t>2015 년</t>
   </si>
@@ -572,9 +572,6 @@
   </si>
   <si>
     <t>인천광역시 중구</t>
-  </si>
-  <si>
-    <t>전국</t>
   </si>
   <si>
     <t>전라남도</t>
@@ -1139,7 +1136,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J247"/>
+  <dimension ref="A1:J246"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -6814,31 +6811,31 @@
         <v>186</v>
       </c>
       <c r="B178">
-        <v>1.199219443281131</v>
+        <v>0.624167335553242</v>
       </c>
       <c r="C178">
-        <v>1.15234763270174</v>
+        <v>0.6040683164211333</v>
       </c>
       <c r="D178">
-        <v>1.080783508775838</v>
+        <v>0.5784607374739679</v>
       </c>
       <c r="E178">
-        <v>1.022161396481991</v>
+        <v>0.5549889811215444</v>
       </c>
       <c r="F178">
-        <v>0.9578493127379251</v>
+        <v>0.5254212600122176</v>
       </c>
       <c r="G178">
-        <v>0.8883101220616308</v>
+        <v>0.4902285778693618</v>
       </c>
       <c r="H178">
-        <v>0.8352527945192297</v>
+        <v>0.463970528759577</v>
       </c>
       <c r="I178">
-        <v>0.7846446630061109</v>
+        <v>0.4409761571604716</v>
       </c>
       <c r="J178">
-        <v>0.7342094078319794</v>
+        <v>0.4182308816418923</v>
       </c>
     </row>
     <row r="179" spans="1:10">
@@ -6846,31 +6843,31 @@
         <v>187</v>
       </c>
       <c r="B179">
-        <v>0.624167335553242</v>
+        <v>0.3414131812420786</v>
       </c>
       <c r="C179">
-        <v>0.6040683164211333</v>
+        <v>0.3197732930769638</v>
       </c>
       <c r="D179">
-        <v>0.5784607374739679</v>
+        <v>0.2996482755000263</v>
       </c>
       <c r="E179">
-        <v>0.5549889811215444</v>
+        <v>0.2865815365292024</v>
       </c>
       <c r="F179">
-        <v>0.5254212600122176</v>
+        <v>0.2665900903252754</v>
       </c>
       <c r="G179">
-        <v>0.4902285778693618</v>
+        <v>0.2463925523661753</v>
       </c>
       <c r="H179">
-        <v>0.463970528759577</v>
+        <v>0.2285964190162585</v>
       </c>
       <c r="I179">
-        <v>0.4409761571604716</v>
+        <v>0.2168231931400572</v>
       </c>
       <c r="J179">
-        <v>0.4182308816418923</v>
+        <v>0.2080438940904057</v>
       </c>
     </row>
     <row r="180" spans="1:10">
@@ -6878,31 +6875,31 @@
         <v>188</v>
       </c>
       <c r="B180">
-        <v>0.3414131812420786</v>
+        <v>0.2277939795363551</v>
       </c>
       <c r="C180">
-        <v>0.3197732930769638</v>
+        <v>0.2178174155926888</v>
       </c>
       <c r="D180">
-        <v>0.2996482755000263</v>
+        <v>0.2089013534934764</v>
       </c>
       <c r="E180">
-        <v>0.2865815365292024</v>
+        <v>0.1951789058889348</v>
       </c>
       <c r="F180">
-        <v>0.2665900903252754</v>
+        <v>0.182889146388567</v>
       </c>
       <c r="G180">
-        <v>0.2463925523661753</v>
+        <v>0.1672363860798557</v>
       </c>
       <c r="H180">
-        <v>0.2285964190162585</v>
+        <v>0.1554055648644184</v>
       </c>
       <c r="I180">
-        <v>0.2168231931400572</v>
+        <v>0.1482193966123962</v>
       </c>
       <c r="J180">
-        <v>0.2080438940904057</v>
+        <v>0.1426976744186046</v>
       </c>
     </row>
     <row r="181" spans="1:10">
@@ -6910,31 +6907,31 @@
         <v>189</v>
       </c>
       <c r="B181">
-        <v>0.2277939795363551</v>
+        <v>0.3035870516185477</v>
       </c>
       <c r="C181">
-        <v>0.2178174155926888</v>
+        <v>0.2944067691159087</v>
       </c>
       <c r="D181">
-        <v>0.2089013534934764</v>
+        <v>0.2854596853490659</v>
       </c>
       <c r="E181">
-        <v>0.1951789058889348</v>
+        <v>0.2738043813637766</v>
       </c>
       <c r="F181">
-        <v>0.182889146388567</v>
+        <v>0.2539389463318562</v>
       </c>
       <c r="G181">
-        <v>0.1672363860798557</v>
+        <v>0.2294160762277059</v>
       </c>
       <c r="H181">
-        <v>0.1554055648644184</v>
+        <v>0.2128567943400829</v>
       </c>
       <c r="I181">
-        <v>0.1482193966123962</v>
+        <v>0.1999514828067196</v>
       </c>
       <c r="J181">
-        <v>0.1426976744186046</v>
+        <v>0.1899384597000657</v>
       </c>
     </row>
     <row r="182" spans="1:10">
@@ -6942,31 +6939,31 @@
         <v>190</v>
       </c>
       <c r="B182">
-        <v>0.3035870516185477</v>
+        <v>1.48243336133812</v>
       </c>
       <c r="C182">
-        <v>0.2944067691159087</v>
+        <v>1.427371213796153</v>
       </c>
       <c r="D182">
-        <v>0.2854596853490659</v>
+        <v>1.347265166862139</v>
       </c>
       <c r="E182">
-        <v>0.2738043813637766</v>
+        <v>1.270345827293436</v>
       </c>
       <c r="F182">
-        <v>0.2539389463318562</v>
+        <v>1.164964702019373</v>
       </c>
       <c r="G182">
-        <v>0.2294160762277059</v>
+        <v>1.030622220820587</v>
       </c>
       <c r="H182">
-        <v>0.2128567943400829</v>
+        <v>0.9513488797439414</v>
       </c>
       <c r="I182">
-        <v>0.1999514828067196</v>
+        <v>0.8954759089991638</v>
       </c>
       <c r="J182">
-        <v>0.1899384597000657</v>
+        <v>0.8321796941260157</v>
       </c>
     </row>
     <row r="183" spans="1:10">
@@ -6974,31 +6971,31 @@
         <v>191</v>
       </c>
       <c r="B183">
-        <v>1.48243336133812</v>
+        <v>0.3408362582023501</v>
       </c>
       <c r="C183">
-        <v>1.427371213796153</v>
+        <v>0.3319567502628022</v>
       </c>
       <c r="D183">
-        <v>1.347265166862139</v>
+        <v>0.3203113526215303</v>
       </c>
       <c r="E183">
-        <v>1.270345827293436</v>
+        <v>0.303862973760933</v>
       </c>
       <c r="F183">
-        <v>1.164964702019373</v>
+        <v>0.2777220630372493</v>
       </c>
       <c r="G183">
-        <v>1.030622220820587</v>
+        <v>0.2455253737628975</v>
       </c>
       <c r="H183">
-        <v>0.9513488797439414</v>
+        <v>0.224876384149314</v>
       </c>
       <c r="I183">
-        <v>0.8954759089991638</v>
+        <v>0.2073255010366275</v>
       </c>
       <c r="J183">
-        <v>0.8321796941260157</v>
+        <v>0.1935747345494147</v>
       </c>
     </row>
     <row r="184" spans="1:10">
@@ -7006,31 +7003,31 @@
         <v>192</v>
       </c>
       <c r="B184">
-        <v>0.3408362582023501</v>
+        <v>0.505292148180149</v>
       </c>
       <c r="C184">
-        <v>0.3319567502628022</v>
+        <v>0.5352146200841025</v>
       </c>
       <c r="D184">
-        <v>0.3203113526215303</v>
+        <v>0.5594040297470472</v>
       </c>
       <c r="E184">
-        <v>0.303862973760933</v>
+        <v>0.5689148817661653</v>
       </c>
       <c r="F184">
-        <v>0.2777220630372493</v>
+        <v>0.5556023380225876</v>
       </c>
       <c r="G184">
-        <v>0.2455253737628975</v>
+        <v>0.5393595166163142</v>
       </c>
       <c r="H184">
-        <v>0.224876384149314</v>
+        <v>0.5266372662311629</v>
       </c>
       <c r="I184">
-        <v>0.2073255010366275</v>
+        <v>0.5088701502165699</v>
       </c>
       <c r="J184">
-        <v>0.1935747345494147</v>
+        <v>0.5016078616564348</v>
       </c>
     </row>
     <row r="185" spans="1:10">
@@ -7038,31 +7035,31 @@
         <v>193</v>
       </c>
       <c r="B185">
-        <v>0.505292148180149</v>
+        <v>0.369174780224974</v>
       </c>
       <c r="C185">
-        <v>0.5352146200841025</v>
+        <v>0.3678780773739742</v>
       </c>
       <c r="D185">
-        <v>0.5594040297470472</v>
+        <v>0.3554399852724595</v>
       </c>
       <c r="E185">
-        <v>0.5689148817661653</v>
+        <v>0.3352595895709151</v>
       </c>
       <c r="F185">
-        <v>0.5556023380225876</v>
+        <v>0.316295226924118</v>
       </c>
       <c r="G185">
-        <v>0.5393595166163142</v>
+        <v>0.2923083654182709</v>
       </c>
       <c r="H185">
-        <v>0.5266372662311629</v>
+        <v>0.2834904436564905</v>
       </c>
       <c r="I185">
-        <v>0.5088701502165699</v>
+        <v>0.2674462785494153</v>
       </c>
       <c r="J185">
-        <v>0.5016078616564348</v>
+        <v>0.2546570966269759</v>
       </c>
     </row>
     <row r="186" spans="1:10">
@@ -7070,31 +7067,31 @@
         <v>194</v>
       </c>
       <c r="B186">
-        <v>0.369174780224974</v>
+        <v>1.166939047273168</v>
       </c>
       <c r="C186">
-        <v>0.3678780773739742</v>
+        <v>1.109910400186585</v>
       </c>
       <c r="D186">
-        <v>0.3554399852724595</v>
+        <v>1.032182748701857</v>
       </c>
       <c r="E186">
-        <v>0.3352595895709151</v>
+        <v>0.9771375566104654</v>
       </c>
       <c r="F186">
-        <v>0.316295226924118</v>
+        <v>0.9148225029025789</v>
       </c>
       <c r="G186">
-        <v>0.2923083654182709</v>
+        <v>0.8259116114938666</v>
       </c>
       <c r="H186">
-        <v>0.2834904436564905</v>
+        <v>0.7592821580814162</v>
       </c>
       <c r="I186">
-        <v>0.2674462785494153</v>
+        <v>0.7115186675400019</v>
       </c>
       <c r="J186">
-        <v>0.2546570966269759</v>
+        <v>0.6595447793665321</v>
       </c>
     </row>
     <row r="187" spans="1:10">
@@ -7102,31 +7099,31 @@
         <v>195</v>
       </c>
       <c r="B187">
-        <v>1.166939047273168</v>
+        <v>0.6750577457620484</v>
       </c>
       <c r="C187">
-        <v>1.109910400186585</v>
+        <v>0.660778339183091</v>
       </c>
       <c r="D187">
-        <v>1.032182748701857</v>
+        <v>0.6555732847048097</v>
       </c>
       <c r="E187">
-        <v>0.9771375566104654</v>
+        <v>0.6323012362481569</v>
       </c>
       <c r="F187">
-        <v>0.9148225029025789</v>
+        <v>0.6095660602445571</v>
       </c>
       <c r="G187">
-        <v>0.8259116114938666</v>
+        <v>0.6337192578742988</v>
       </c>
       <c r="H187">
-        <v>0.7592821580814162</v>
+        <v>0.6678501124859393</v>
       </c>
       <c r="I187">
-        <v>0.7115186675400019</v>
+        <v>0.6404702970297029</v>
       </c>
       <c r="J187">
-        <v>0.6595447793665321</v>
+        <v>0.6176066945606694</v>
       </c>
     </row>
     <row r="188" spans="1:10">
@@ -7134,31 +7131,31 @@
         <v>196</v>
       </c>
       <c r="B188">
-        <v>0.6750577457620484</v>
+        <v>0.2724129515131793</v>
       </c>
       <c r="C188">
-        <v>0.660778339183091</v>
+        <v>0.2596656005829723</v>
       </c>
       <c r="D188">
-        <v>0.6555732847048097</v>
+        <v>0.2465923669018602</v>
       </c>
       <c r="E188">
-        <v>0.6323012362481569</v>
+        <v>0.233560182015866</v>
       </c>
       <c r="F188">
-        <v>0.6095660602445571</v>
+        <v>0.2156626021167854</v>
       </c>
       <c r="G188">
-        <v>0.6337192578742988</v>
+        <v>0.1963422912590345</v>
       </c>
       <c r="H188">
-        <v>0.6678501124859393</v>
+        <v>0.1799992044234059</v>
       </c>
       <c r="I188">
-        <v>0.6404702970297029</v>
+        <v>0.1683360386396928</v>
       </c>
       <c r="J188">
-        <v>0.6176066945606694</v>
+        <v>0.1596943197037737</v>
       </c>
     </row>
     <row r="189" spans="1:10">
@@ -7166,31 +7163,31 @@
         <v>197</v>
       </c>
       <c r="B189">
-        <v>0.2724129515131793</v>
+        <v>1.178893529963345</v>
       </c>
       <c r="C189">
-        <v>0.2596656005829723</v>
+        <v>1.124917152704136</v>
       </c>
       <c r="D189">
-        <v>0.2465923669018602</v>
+        <v>1.065694712805199</v>
       </c>
       <c r="E189">
-        <v>0.233560182015866</v>
+        <v>1.016100374064838</v>
       </c>
       <c r="F189">
-        <v>0.2156626021167854</v>
+        <v>0.9541809679401669</v>
       </c>
       <c r="G189">
-        <v>0.1963422912590345</v>
+        <v>0.8985571491899158</v>
       </c>
       <c r="H189">
-        <v>0.1799992044234059</v>
+        <v>0.8483234659436729</v>
       </c>
       <c r="I189">
-        <v>0.1683360386396928</v>
+        <v>0.7901380565779508</v>
       </c>
       <c r="J189">
-        <v>0.1596943197037737</v>
+        <v>0.7361998985286656</v>
       </c>
     </row>
     <row r="190" spans="1:10">
@@ -7198,31 +7195,31 @@
         <v>198</v>
       </c>
       <c r="B190">
-        <v>1.178893529963345</v>
+        <v>0.258606631636166</v>
       </c>
       <c r="C190">
-        <v>1.124917152704136</v>
+        <v>0.2480181200453001</v>
       </c>
       <c r="D190">
-        <v>1.065694712805199</v>
+        <v>0.2320232246538633</v>
       </c>
       <c r="E190">
-        <v>1.016100374064838</v>
+        <v>0.2198399856166846</v>
       </c>
       <c r="F190">
-        <v>0.9541809679401669</v>
+        <v>0.2023607261021193</v>
       </c>
       <c r="G190">
-        <v>0.8985571491899158</v>
+        <v>0.1783834004335708</v>
       </c>
       <c r="H190">
-        <v>0.8483234659436729</v>
+        <v>0.1668136131193793</v>
       </c>
       <c r="I190">
-        <v>0.7901380565779508</v>
+        <v>0.157660991857883</v>
       </c>
       <c r="J190">
-        <v>0.7361998985286656</v>
+        <v>0.1545306052269601</v>
       </c>
     </row>
     <row r="191" spans="1:10">
@@ -7230,31 +7227,31 @@
         <v>199</v>
       </c>
       <c r="B191">
-        <v>0.258606631636166</v>
+        <v>0.9113719653463261</v>
       </c>
       <c r="C191">
-        <v>0.2480181200453001</v>
+        <v>0.8633063200261069</v>
       </c>
       <c r="D191">
-        <v>0.2320232246538633</v>
+        <v>0.8069601622293452</v>
       </c>
       <c r="E191">
-        <v>0.2198399856166846</v>
+        <v>0.7606690696391694</v>
       </c>
       <c r="F191">
-        <v>0.2023607261021193</v>
+        <v>0.7095231086252576</v>
       </c>
       <c r="G191">
-        <v>0.1783834004335708</v>
+        <v>0.6475472228402797</v>
       </c>
       <c r="H191">
-        <v>0.1668136131193793</v>
+        <v>0.6048509922484144</v>
       </c>
       <c r="I191">
-        <v>0.157660991857883</v>
+        <v>0.5678317406292273</v>
       </c>
       <c r="J191">
-        <v>0.1545306052269601</v>
+        <v>0.527514111822396</v>
       </c>
     </row>
     <row r="192" spans="1:10">
@@ -7262,31 +7259,31 @@
         <v>200</v>
       </c>
       <c r="B192">
-        <v>0.9113719653463261</v>
+        <v>0.4216959187989004</v>
       </c>
       <c r="C192">
-        <v>0.8633063200261069</v>
+        <v>0.4092307692307692</v>
       </c>
       <c r="D192">
-        <v>0.8069601622293452</v>
+        <v>0.3855576779337264</v>
       </c>
       <c r="E192">
-        <v>0.7606690696391694</v>
+        <v>0.3700820011596124</v>
       </c>
       <c r="F192">
-        <v>0.7095231086252576</v>
+        <v>0.3623063329634653</v>
       </c>
       <c r="G192">
-        <v>0.6475472228402797</v>
+        <v>0.3411926198070168</v>
       </c>
       <c r="H192">
-        <v>0.6048509922484144</v>
+        <v>0.3193692066931503</v>
       </c>
       <c r="I192">
-        <v>0.5678317406292273</v>
+        <v>0.3134498779431451</v>
       </c>
       <c r="J192">
-        <v>0.527514111822396</v>
+        <v>0.3040304418731071</v>
       </c>
     </row>
     <row r="193" spans="1:10">
@@ -7294,31 +7291,31 @@
         <v>201</v>
       </c>
       <c r="B193">
-        <v>0.4216959187989004</v>
+        <v>0.487340899692138</v>
       </c>
       <c r="C193">
-        <v>0.4092307692307692</v>
+        <v>0.4622512324265108</v>
       </c>
       <c r="D193">
-        <v>0.3855576779337264</v>
+        <v>0.4343944449454414</v>
       </c>
       <c r="E193">
-        <v>0.3700820011596124</v>
+        <v>0.4130493394445942</v>
       </c>
       <c r="F193">
-        <v>0.3623063329634653</v>
+        <v>0.3932246808886533</v>
       </c>
       <c r="G193">
-        <v>0.3411926198070168</v>
+        <v>0.3663216250162415</v>
       </c>
       <c r="H193">
-        <v>0.3193692066931503</v>
+        <v>0.3394845007706799</v>
       </c>
       <c r="I193">
-        <v>0.3134498779431451</v>
+        <v>0.3233282674772037</v>
       </c>
       <c r="J193">
-        <v>0.3040304418731071</v>
+        <v>0.3122982702971117</v>
       </c>
     </row>
     <row r="194" spans="1:10">
@@ -7326,31 +7323,31 @@
         <v>202</v>
       </c>
       <c r="B194">
-        <v>0.487340899692138</v>
+        <v>0.3402024143397147</v>
       </c>
       <c r="C194">
-        <v>0.4622512324265108</v>
+        <v>0.3283540248297958</v>
       </c>
       <c r="D194">
-        <v>0.4343944449454414</v>
+        <v>0.3158480368780798</v>
       </c>
       <c r="E194">
-        <v>0.4130493394445942</v>
+        <v>0.3020625945687664</v>
       </c>
       <c r="F194">
-        <v>0.3932246808886533</v>
+        <v>0.2858776218262104</v>
       </c>
       <c r="G194">
-        <v>0.3663216250162415</v>
+        <v>0.2669844591714142</v>
       </c>
       <c r="H194">
-        <v>0.3394845007706799</v>
+        <v>0.2468165081313286</v>
       </c>
       <c r="I194">
-        <v>0.3233282674772037</v>
+        <v>0.2317007946210269</v>
       </c>
       <c r="J194">
-        <v>0.3122982702971117</v>
+        <v>0.2193528900970287</v>
       </c>
     </row>
     <row r="195" spans="1:10">
@@ -7358,31 +7355,31 @@
         <v>203</v>
       </c>
       <c r="B195">
-        <v>0.3402024143397147</v>
+        <v>0.3990480961923848</v>
       </c>
       <c r="C195">
-        <v>0.3283540248297958</v>
+        <v>0.3878058484185399</v>
       </c>
       <c r="D195">
-        <v>0.3158480368780798</v>
+        <v>0.3755187734973878</v>
       </c>
       <c r="E195">
-        <v>0.3020625945687664</v>
+        <v>0.3610572259941804</v>
       </c>
       <c r="F195">
-        <v>0.2858776218262104</v>
+        <v>0.3424874951904578</v>
       </c>
       <c r="G195">
-        <v>0.2669844591714142</v>
+        <v>0.3118213866039953</v>
       </c>
       <c r="H195">
-        <v>0.2468165081313286</v>
+        <v>0.2901341309529373</v>
       </c>
       <c r="I195">
-        <v>0.2317007946210269</v>
+        <v>0.2743760018319212</v>
       </c>
       <c r="J195">
-        <v>0.2193528900970287</v>
+        <v>0.2591690350521045</v>
       </c>
     </row>
     <row r="196" spans="1:10">
@@ -7390,31 +7387,31 @@
         <v>204</v>
       </c>
       <c r="B196">
-        <v>0.3990480961923848</v>
+        <v>0.3643024618991794</v>
       </c>
       <c r="C196">
-        <v>0.3878058484185399</v>
+        <v>0.3183199372672025</v>
       </c>
       <c r="D196">
-        <v>0.3755187734973878</v>
+        <v>0.3063089478571079</v>
       </c>
       <c r="E196">
-        <v>0.3610572259941804</v>
+        <v>0.2946117196325949</v>
       </c>
       <c r="F196">
-        <v>0.3424874951904578</v>
+        <v>0.2762670565302144</v>
       </c>
       <c r="G196">
-        <v>0.3118213866039953</v>
+        <v>0.2532108326518832</v>
       </c>
       <c r="H196">
-        <v>0.2901341309529373</v>
+        <v>0.2280575883675324</v>
       </c>
       <c r="I196">
-        <v>0.2743760018319212</v>
+        <v>0.2153492603054531</v>
       </c>
       <c r="J196">
-        <v>0.2591690350521045</v>
+        <v>0.2027027027027027</v>
       </c>
     </row>
     <row r="197" spans="1:10">
@@ -7422,31 +7419,31 @@
         <v>205</v>
       </c>
       <c r="B197">
-        <v>0.3643024618991794</v>
+        <v>0.304085733422639</v>
       </c>
       <c r="C197">
-        <v>0.3183199372672025</v>
+        <v>0.2944481768765651</v>
       </c>
       <c r="D197">
-        <v>0.3063089478571079</v>
+        <v>0.2814491170580739</v>
       </c>
       <c r="E197">
-        <v>0.2946117196325949</v>
+        <v>0.274964795199902</v>
       </c>
       <c r="F197">
-        <v>0.2762670565302144</v>
+        <v>0.2644292826848608</v>
       </c>
       <c r="G197">
-        <v>0.2532108326518832</v>
+        <v>0.2614772864200506</v>
       </c>
       <c r="H197">
-        <v>0.2280575883675324</v>
+        <v>0.2356932684801537</v>
       </c>
       <c r="I197">
-        <v>0.2153492603054531</v>
+        <v>0.2234593629056267</v>
       </c>
       <c r="J197">
-        <v>0.2027027027027027</v>
+        <v>0.2109858988730899</v>
       </c>
     </row>
     <row r="198" spans="1:10">
@@ -7454,31 +7451,31 @@
         <v>206</v>
       </c>
       <c r="B198">
-        <v>0.304085733422639</v>
+        <v>0.2842306641158787</v>
       </c>
       <c r="C198">
-        <v>0.2944481768765651</v>
+        <v>0.2707504496157829</v>
       </c>
       <c r="D198">
-        <v>0.2814491170580739</v>
+        <v>0.2636936500242366</v>
       </c>
       <c r="E198">
-        <v>0.274964795199902</v>
+        <v>0.2477694262693992</v>
       </c>
       <c r="F198">
-        <v>0.2644292826848608</v>
+        <v>0.2292816199710719</v>
       </c>
       <c r="G198">
-        <v>0.2614772864200506</v>
+        <v>0.2093935538592027</v>
       </c>
       <c r="H198">
-        <v>0.2356932684801537</v>
+        <v>0.190884690279459</v>
       </c>
       <c r="I198">
-        <v>0.2234593629056267</v>
+        <v>0.1809766498517864</v>
       </c>
       <c r="J198">
-        <v>0.2109858988730899</v>
+        <v>0.1719253387880338</v>
       </c>
     </row>
     <row r="199" spans="1:10">
@@ -7486,31 +7483,31 @@
         <v>207</v>
       </c>
       <c r="B199">
-        <v>0.2842306641158787</v>
+        <v>0.3740462444515362</v>
       </c>
       <c r="C199">
-        <v>0.2707504496157829</v>
+        <v>0.359085931646591</v>
       </c>
       <c r="D199">
-        <v>0.2636936500242366</v>
+        <v>0.3361619728336703</v>
       </c>
       <c r="E199">
-        <v>0.2477694262693992</v>
+        <v>0.3171721791829851</v>
       </c>
       <c r="F199">
-        <v>0.2292816199710719</v>
+        <v>0.2956412953854027</v>
       </c>
       <c r="G199">
-        <v>0.2093935538592027</v>
+        <v>0.2726839256163577</v>
       </c>
       <c r="H199">
-        <v>0.190884690279459</v>
+        <v>0.2533307373515423</v>
       </c>
       <c r="I199">
-        <v>0.1809766498517864</v>
+        <v>0.2373897028505456</v>
       </c>
       <c r="J199">
-        <v>0.1719253387880338</v>
+        <v>0.2228041136406805</v>
       </c>
     </row>
     <row r="200" spans="1:10">
@@ -7518,31 +7515,31 @@
         <v>208</v>
       </c>
       <c r="B200">
-        <v>0.3740462444515362</v>
+        <v>0.5339813592543702</v>
       </c>
       <c r="C200">
-        <v>0.359085931646591</v>
+        <v>0.5197708648261596</v>
       </c>
       <c r="D200">
-        <v>0.3361619728336703</v>
+        <v>0.494860671434713</v>
       </c>
       <c r="E200">
-        <v>0.3171721791829851</v>
+        <v>0.4731374525156989</v>
       </c>
       <c r="F200">
-        <v>0.2956412953854027</v>
+        <v>0.436591152609827</v>
       </c>
       <c r="G200">
-        <v>0.2726839256163577</v>
+        <v>0.4072805776818283</v>
       </c>
       <c r="H200">
-        <v>0.2533307373515423</v>
+        <v>0.3863818036479907</v>
       </c>
       <c r="I200">
-        <v>0.2373897028505456</v>
+        <v>0.3654441321902458</v>
       </c>
       <c r="J200">
-        <v>0.2228041136406805</v>
+        <v>0.342769701606733</v>
       </c>
     </row>
     <row r="201" spans="1:10">
@@ -7550,31 +7547,31 @@
         <v>209</v>
       </c>
       <c r="B201">
-        <v>0.5339813592543702</v>
+        <v>0.784176233322991</v>
       </c>
       <c r="C201">
-        <v>0.5197708648261596</v>
+        <v>0.7559230668681985</v>
       </c>
       <c r="D201">
-        <v>0.494860671434713</v>
+        <v>0.7185136079408023</v>
       </c>
       <c r="E201">
-        <v>0.4731374525156989</v>
+        <v>0.6824860466384404</v>
       </c>
       <c r="F201">
-        <v>0.436591152609827</v>
+        <v>0.6396571880421409</v>
       </c>
       <c r="G201">
-        <v>0.4072805776818283</v>
+        <v>0.5949452387198321</v>
       </c>
       <c r="H201">
-        <v>0.3863818036479907</v>
+        <v>0.5594945802270078</v>
       </c>
       <c r="I201">
-        <v>0.3654441321902458</v>
+        <v>0.5274421762170389</v>
       </c>
       <c r="J201">
-        <v>0.342769701606733</v>
+        <v>0.4971024232360644</v>
       </c>
     </row>
     <row r="202" spans="1:10">
@@ -7582,31 +7579,31 @@
         <v>210</v>
       </c>
       <c r="B202">
-        <v>0.784176233322991</v>
+        <v>0.3453624564735676</v>
       </c>
       <c r="C202">
-        <v>0.7559230668681985</v>
+        <v>0.3440890125173853</v>
       </c>
       <c r="D202">
-        <v>0.7185136079408023</v>
+        <v>0.3332191076691111</v>
       </c>
       <c r="E202">
-        <v>0.6824860466384404</v>
+        <v>0.2910524865683978</v>
       </c>
       <c r="F202">
-        <v>0.6396571880421409</v>
+        <v>0.2670921311698011</v>
       </c>
       <c r="G202">
-        <v>0.5949452387198321</v>
+        <v>0.2434481841160037</v>
       </c>
       <c r="H202">
-        <v>0.5594945802270078</v>
+        <v>0.2240142189454282</v>
       </c>
       <c r="I202">
-        <v>0.5274421762170389</v>
+        <v>0.210384377944569</v>
       </c>
       <c r="J202">
-        <v>0.4971024232360644</v>
+        <v>0.196920531908125</v>
       </c>
     </row>
     <row r="203" spans="1:10">
@@ -7614,31 +7611,31 @@
         <v>211</v>
       </c>
       <c r="B203">
-        <v>0.3453624564735676</v>
+        <v>0.9729928348337314</v>
       </c>
       <c r="C203">
-        <v>0.3440890125173853</v>
+        <v>0.9287248063737468</v>
       </c>
       <c r="D203">
-        <v>0.3332191076691111</v>
+        <v>0.8699433916527641</v>
       </c>
       <c r="E203">
-        <v>0.2910524865683978</v>
+        <v>0.8201973173705798</v>
       </c>
       <c r="F203">
-        <v>0.2670921311698011</v>
+        <v>0.762149830220713</v>
       </c>
       <c r="G203">
-        <v>0.2434481841160037</v>
+        <v>0.6970307756264094</v>
       </c>
       <c r="H203">
-        <v>0.2240142189454282</v>
+        <v>0.6471774193548387</v>
       </c>
       <c r="I203">
-        <v>0.210384377944569</v>
+        <v>0.6012132524498367</v>
       </c>
       <c r="J203">
-        <v>0.196920531908125</v>
+        <v>0.5601476679272466</v>
       </c>
     </row>
     <row r="204" spans="1:10">
@@ -7646,31 +7643,31 @@
         <v>212</v>
       </c>
       <c r="B204">
-        <v>0.9729928348337314</v>
+        <v>0.3803310316815597</v>
       </c>
       <c r="C204">
-        <v>0.9287248063737468</v>
+        <v>0.3646120668037515</v>
       </c>
       <c r="D204">
-        <v>0.8699433916527641</v>
+        <v>0.350816255644321</v>
       </c>
       <c r="E204">
-        <v>0.8201973173705798</v>
+        <v>0.3332756061355764</v>
       </c>
       <c r="F204">
-        <v>0.762149830220713</v>
+        <v>0.3141602634467618</v>
       </c>
       <c r="G204">
-        <v>0.6970307756264094</v>
+        <v>0.2921332253299662</v>
       </c>
       <c r="H204">
-        <v>0.6471774193548387</v>
+        <v>0.2744498777506112</v>
       </c>
       <c r="I204">
-        <v>0.6012132524498367</v>
+        <v>0.269804083695078</v>
       </c>
       <c r="J204">
-        <v>0.5601476679272466</v>
+        <v>0.2616987542468856</v>
       </c>
     </row>
     <row r="205" spans="1:10">
@@ -7678,31 +7675,31 @@
         <v>213</v>
       </c>
       <c r="B205">
-        <v>0.3803310316815597</v>
+        <v>0.4953972353030533</v>
       </c>
       <c r="C205">
-        <v>0.3646120668037515</v>
+        <v>0.4788673119701798</v>
       </c>
       <c r="D205">
-        <v>0.350816255644321</v>
+        <v>0.452898016913693</v>
       </c>
       <c r="E205">
-        <v>0.3332756061355764</v>
+        <v>0.4317427023247684</v>
       </c>
       <c r="F205">
-        <v>0.3141602634467618</v>
+        <v>0.4028388928317956</v>
       </c>
       <c r="G205">
-        <v>0.2921332253299662</v>
+        <v>0.3772349186171829</v>
       </c>
       <c r="H205">
-        <v>0.2744498777506112</v>
+        <v>0.3514172013319256</v>
       </c>
       <c r="I205">
-        <v>0.269804083695078</v>
+        <v>0.3288524502888173</v>
       </c>
       <c r="J205">
-        <v>0.2616987542468856</v>
+        <v>0.3078636959370905</v>
       </c>
     </row>
     <row r="206" spans="1:10">
@@ -7710,31 +7707,31 @@
         <v>214</v>
       </c>
       <c r="B206">
-        <v>0.4953972353030533</v>
+        <v>0.3348631508678238</v>
       </c>
       <c r="C206">
-        <v>0.4788673119701798</v>
+        <v>0.3151680290644868</v>
       </c>
       <c r="D206">
-        <v>0.452898016913693</v>
+        <v>0.3003805359889887</v>
       </c>
       <c r="E206">
-        <v>0.4317427023247684</v>
+        <v>0.2899571093307437</v>
       </c>
       <c r="F206">
-        <v>0.4028388928317956</v>
+        <v>0.2718539102818579</v>
       </c>
       <c r="G206">
-        <v>0.3772349186171829</v>
+        <v>0.255741533670689</v>
       </c>
       <c r="H206">
-        <v>0.3514172013319256</v>
+        <v>0.2423585854677706</v>
       </c>
       <c r="I206">
-        <v>0.3288524502888173</v>
+        <v>0.2273687386843694</v>
       </c>
       <c r="J206">
-        <v>0.3078636959370905</v>
+        <v>0.2164068299925761</v>
       </c>
     </row>
     <row r="207" spans="1:10">
@@ -7742,31 +7739,31 @@
         <v>215</v>
       </c>
       <c r="B207">
-        <v>0.3348631508678238</v>
+        <v>0.3589488201041986</v>
       </c>
       <c r="C207">
-        <v>0.3151680290644868</v>
+        <v>0.3521924689353023</v>
       </c>
       <c r="D207">
-        <v>0.3003805359889887</v>
+        <v>0.3328846010021689</v>
       </c>
       <c r="E207">
-        <v>0.2899571093307437</v>
+        <v>0.3111696126363295</v>
       </c>
       <c r="F207">
-        <v>0.2718539102818579</v>
+        <v>0.2883258854378254</v>
       </c>
       <c r="G207">
-        <v>0.255741533670689</v>
+        <v>0.2648783666377064</v>
       </c>
       <c r="H207">
-        <v>0.2423585854677706</v>
+        <v>0.2440497591141152</v>
       </c>
       <c r="I207">
-        <v>0.2273687386843694</v>
+        <v>0.2317593539514053</v>
       </c>
       <c r="J207">
-        <v>0.2164068299925761</v>
+        <v>0.2156944444444444</v>
       </c>
     </row>
     <row r="208" spans="1:10">
@@ -7774,31 +7771,31 @@
         <v>216</v>
       </c>
       <c r="B208">
-        <v>0.3589488201041986</v>
+        <v>0.3383787420114363</v>
       </c>
       <c r="C208">
-        <v>0.3521924689353023</v>
+        <v>0.330177276390008</v>
       </c>
       <c r="D208">
-        <v>0.3328846010021689</v>
+        <v>0.3148851148851149</v>
       </c>
       <c r="E208">
-        <v>0.3111696126363295</v>
+        <v>0.300753886183201</v>
       </c>
       <c r="F208">
-        <v>0.2883258854378254</v>
+        <v>0.2832955605919211</v>
       </c>
       <c r="G208">
-        <v>0.2648783666377064</v>
+        <v>0.2614452275871155</v>
       </c>
       <c r="H208">
-        <v>0.2440497591141152</v>
+        <v>0.237598944591029</v>
       </c>
       <c r="I208">
-        <v>0.2317593539514053</v>
+        <v>0.2295891835673427</v>
       </c>
       <c r="J208">
-        <v>0.2156944444444444</v>
+        <v>0.229417444480206</v>
       </c>
     </row>
     <row r="209" spans="1:10">
@@ -7806,31 +7803,31 @@
         <v>217</v>
       </c>
       <c r="B209">
-        <v>0.3383787420114363</v>
+        <v>0.6622016142881676</v>
       </c>
       <c r="C209">
-        <v>0.330177276390008</v>
+        <v>0.6406265723006742</v>
       </c>
       <c r="D209">
-        <v>0.3148851148851149</v>
+        <v>0.6141657682380999</v>
       </c>
       <c r="E209">
-        <v>0.300753886183201</v>
+        <v>0.5775629496402878</v>
       </c>
       <c r="F209">
-        <v>0.2832955605919211</v>
+        <v>0.5302992518703242</v>
       </c>
       <c r="G209">
-        <v>0.2614452275871155</v>
+        <v>0.492094330035568</v>
       </c>
       <c r="H209">
-        <v>0.237598944591029</v>
+        <v>0.4599838084774186</v>
       </c>
       <c r="I209">
-        <v>0.2295891835673427</v>
+        <v>0.4552977810194406</v>
       </c>
       <c r="J209">
-        <v>0.229417444480206</v>
+        <v>0.464218079005628</v>
       </c>
     </row>
     <row r="210" spans="1:10">
@@ -7838,31 +7835,31 @@
         <v>218</v>
       </c>
       <c r="B210">
-        <v>0.6622016142881676</v>
+        <v>0.9379657576324154</v>
       </c>
       <c r="C210">
-        <v>0.6406265723006742</v>
+        <v>0.8910128388017119</v>
       </c>
       <c r="D210">
-        <v>0.6141657682380999</v>
+        <v>0.8452903855539288</v>
       </c>
       <c r="E210">
-        <v>0.5775629496402878</v>
+        <v>0.7878839862273468</v>
       </c>
       <c r="F210">
-        <v>0.5302992518703242</v>
+        <v>0.7209778135200341</v>
       </c>
       <c r="G210">
-        <v>0.492094330035568</v>
+        <v>0.6536693361647332</v>
       </c>
       <c r="H210">
-        <v>0.4599838084774186</v>
+        <v>0.6093496825049266</v>
       </c>
       <c r="I210">
-        <v>0.4552977810194406</v>
+        <v>0.5684085283588115</v>
       </c>
       <c r="J210">
-        <v>0.464218079005628</v>
+        <v>0.5299528253301197</v>
       </c>
     </row>
     <row r="211" spans="1:10">
@@ -7870,31 +7867,31 @@
         <v>219</v>
       </c>
       <c r="B211">
-        <v>0.9379657576324154</v>
+        <v>0.2971133075865681</v>
       </c>
       <c r="C211">
-        <v>0.8910128388017119</v>
+        <v>0.2885494189842016</v>
       </c>
       <c r="D211">
-        <v>0.8452903855539288</v>
+        <v>0.2783165244375485</v>
       </c>
       <c r="E211">
-        <v>0.7878839862273468</v>
+        <v>0.2712701160479579</v>
       </c>
       <c r="F211">
-        <v>0.7209778135200341</v>
+        <v>0.2464055211195604</v>
       </c>
       <c r="G211">
-        <v>0.6536693361647332</v>
+        <v>0.2057404114808229</v>
       </c>
       <c r="H211">
-        <v>0.6093496825049266</v>
+        <v>0.1883957757103344</v>
       </c>
       <c r="I211">
-        <v>0.5684085283588115</v>
+        <v>0.1810837683320905</v>
       </c>
       <c r="J211">
-        <v>0.5299528253301197</v>
+        <v>0.1701601434489581</v>
       </c>
     </row>
     <row r="212" spans="1:10">
@@ -7902,31 +7899,31 @@
         <v>220</v>
       </c>
       <c r="B212">
-        <v>0.2971133075865681</v>
+        <v>0.3312363238512035</v>
       </c>
       <c r="C212">
-        <v>0.2885494189842016</v>
+        <v>0.328862660944206</v>
       </c>
       <c r="D212">
-        <v>0.2783165244375485</v>
+        <v>0.2989202001580195</v>
       </c>
       <c r="E212">
-        <v>0.2712701160479579</v>
+        <v>0.2984320557491289</v>
       </c>
       <c r="F212">
-        <v>0.2464055211195604</v>
+        <v>0.2730947875451574</v>
       </c>
       <c r="G212">
-        <v>0.2057404114808229</v>
+        <v>0.2503961965134707</v>
       </c>
       <c r="H212">
-        <v>0.1883957757103344</v>
+        <v>0.2285573851069059</v>
       </c>
       <c r="I212">
-        <v>0.1810837683320905</v>
+        <v>0.2115679780273043</v>
       </c>
       <c r="J212">
-        <v>0.1701601434489581</v>
+        <v>0.1978440076093849</v>
       </c>
     </row>
     <row r="213" spans="1:10">
@@ -7934,31 +7931,31 @@
         <v>221</v>
       </c>
       <c r="B213">
-        <v>0.3312363238512035</v>
+        <v>1.361776851220783</v>
       </c>
       <c r="C213">
-        <v>0.328862660944206</v>
+        <v>1.304515195819206</v>
       </c>
       <c r="D213">
-        <v>0.2989202001580195</v>
+        <v>1.226167387736834</v>
       </c>
       <c r="E213">
-        <v>0.2984320557491289</v>
+        <v>1.161820035613763</v>
       </c>
       <c r="F213">
-        <v>0.2730947875451574</v>
+        <v>1.090729567398034</v>
       </c>
       <c r="G213">
-        <v>0.2503961965134707</v>
+        <v>1.018525343834261</v>
       </c>
       <c r="H213">
-        <v>0.2285573851069059</v>
+        <v>0.9568036965233603</v>
       </c>
       <c r="I213">
-        <v>0.2115679780273043</v>
+        <v>0.893296869890907</v>
       </c>
       <c r="J213">
-        <v>0.1978440076093849</v>
+        <v>0.8298814283508074</v>
       </c>
     </row>
     <row r="214" spans="1:10">
@@ -7966,31 +7963,31 @@
         <v>222</v>
       </c>
       <c r="B214">
-        <v>1.361776851220783</v>
+        <v>0.5001893475306854</v>
       </c>
       <c r="C214">
-        <v>1.304515195819206</v>
+        <v>0.4839571602075742</v>
       </c>
       <c r="D214">
-        <v>1.226167387736834</v>
+        <v>0.4612026628833352</v>
       </c>
       <c r="E214">
-        <v>1.161820035613763</v>
+        <v>0.4395640114414492</v>
       </c>
       <c r="F214">
-        <v>1.090729567398034</v>
+        <v>0.4102074987812891</v>
       </c>
       <c r="G214">
-        <v>1.018525343834261</v>
+        <v>0.3808675846360907</v>
       </c>
       <c r="H214">
-        <v>0.9568036965233603</v>
+        <v>0.3572309716682429</v>
       </c>
       <c r="I214">
-        <v>0.893296869890907</v>
+        <v>0.3365860528751358</v>
       </c>
       <c r="J214">
-        <v>0.8298814283508074</v>
+        <v>0.3177716518255558</v>
       </c>
     </row>
     <row r="215" spans="1:10">
@@ -7998,31 +7995,31 @@
         <v>223</v>
       </c>
       <c r="B215">
-        <v>0.5001893475306854</v>
+        <v>0.3071693448702101</v>
       </c>
       <c r="C215">
-        <v>0.4839571602075742</v>
+        <v>0.3003702560937982</v>
       </c>
       <c r="D215">
-        <v>0.4612026628833352</v>
+        <v>0.2931425976385105</v>
       </c>
       <c r="E215">
-        <v>0.4395640114414492</v>
+        <v>0.2738015107321816</v>
       </c>
       <c r="F215">
-        <v>0.4102074987812891</v>
+        <v>0.2559694364851958</v>
       </c>
       <c r="G215">
-        <v>0.3808675846360907</v>
+        <v>0.232072638878959</v>
       </c>
       <c r="H215">
-        <v>0.3572309716682429</v>
+        <v>0.2113866967305524</v>
       </c>
       <c r="I215">
-        <v>0.3365860528751358</v>
+        <v>0.1951506754416349</v>
       </c>
       <c r="J215">
-        <v>0.3177716518255558</v>
+        <v>0.1872227151730257</v>
       </c>
     </row>
     <row r="216" spans="1:10">
@@ -8030,31 +8027,31 @@
         <v>224</v>
       </c>
       <c r="B216">
-        <v>0.3071693448702101</v>
+        <v>1.094865436510831</v>
       </c>
       <c r="C216">
-        <v>0.3003702560937982</v>
+        <v>1.074746478873239</v>
       </c>
       <c r="D216">
-        <v>0.2931425976385105</v>
+        <v>1.043493259559386</v>
       </c>
       <c r="E216">
-        <v>0.2738015107321816</v>
+        <v>1.014871424822881</v>
       </c>
       <c r="F216">
-        <v>0.2559694364851958</v>
+        <v>0.9630567949784467</v>
       </c>
       <c r="G216">
-        <v>0.232072638878959</v>
+        <v>0.9012904266955155</v>
       </c>
       <c r="H216">
-        <v>0.2113866967305524</v>
+        <v>0.8547132384648556</v>
       </c>
       <c r="I216">
-        <v>0.1951506754416349</v>
+        <v>0.8074967078620112</v>
       </c>
       <c r="J216">
-        <v>0.1872227151730257</v>
+        <v>0.7532052296685555</v>
       </c>
     </row>
     <row r="217" spans="1:10">
@@ -8062,31 +8059,31 @@
         <v>225</v>
       </c>
       <c r="B217">
-        <v>1.094865436510831</v>
+        <v>0.7645443735812345</v>
       </c>
       <c r="C217">
-        <v>1.074746478873239</v>
+        <v>0.7628438638362015</v>
       </c>
       <c r="D217">
-        <v>1.043493259559386</v>
+        <v>0.7601282308154679</v>
       </c>
       <c r="E217">
-        <v>1.014871424822881</v>
+        <v>0.7409753625448308</v>
       </c>
       <c r="F217">
-        <v>0.9630567949784467</v>
+        <v>0.6998760284007663</v>
       </c>
       <c r="G217">
-        <v>0.9012904266955155</v>
+        <v>0.6518740146194639</v>
       </c>
       <c r="H217">
-        <v>0.8547132384648556</v>
+        <v>0.6235074562388762</v>
       </c>
       <c r="I217">
-        <v>0.8074967078620112</v>
+        <v>0.5944660613921314</v>
       </c>
       <c r="J217">
-        <v>0.7532052296685555</v>
+        <v>0.5554792222524005</v>
       </c>
     </row>
     <row r="218" spans="1:10">
@@ -8094,31 +8091,31 @@
         <v>226</v>
       </c>
       <c r="B218">
-        <v>0.7645443735812345</v>
+        <v>1.263034505530791</v>
       </c>
       <c r="C218">
-        <v>0.7628438638362015</v>
+        <v>1.232845894263217</v>
       </c>
       <c r="D218">
-        <v>0.7601282308154679</v>
+        <v>1.187911650277242</v>
       </c>
       <c r="E218">
-        <v>0.7409753625448308</v>
+        <v>1.153812687865844</v>
       </c>
       <c r="F218">
-        <v>0.6998760284007663</v>
+        <v>1.095942639276162</v>
       </c>
       <c r="G218">
-        <v>0.6518740146194639</v>
+        <v>1.026154108329671</v>
       </c>
       <c r="H218">
-        <v>0.6235074562388762</v>
+        <v>0.9700053423406345</v>
       </c>
       <c r="I218">
-        <v>0.5944660613921314</v>
+        <v>0.9130649746611182</v>
       </c>
       <c r="J218">
-        <v>0.5554792222524005</v>
+        <v>0.8506967694161947</v>
       </c>
     </row>
     <row r="219" spans="1:10">
@@ -8126,31 +8123,31 @@
         <v>227</v>
       </c>
       <c r="B219">
-        <v>1.263034505530791</v>
+        <v>0.8660611007160558</v>
       </c>
       <c r="C219">
-        <v>1.232845894263217</v>
+        <v>0.8441484077238489</v>
       </c>
       <c r="D219">
-        <v>1.187911650277242</v>
+        <v>0.8093555126211457</v>
       </c>
       <c r="E219">
-        <v>1.153812687865844</v>
+        <v>0.7774614165075873</v>
       </c>
       <c r="F219">
-        <v>1.095942639276162</v>
+        <v>0.7330646579566317</v>
       </c>
       <c r="G219">
-        <v>1.026154108329671</v>
+        <v>0.6835919134931829</v>
       </c>
       <c r="H219">
-        <v>0.9700053423406345</v>
+        <v>0.6464649383196671</v>
       </c>
       <c r="I219">
-        <v>0.9130649746611182</v>
+        <v>0.6155489194890718</v>
       </c>
       <c r="J219">
-        <v>0.8506967694161947</v>
+        <v>0.5855069147854383</v>
       </c>
     </row>
     <row r="220" spans="1:10">
@@ -8158,31 +8155,31 @@
         <v>228</v>
       </c>
       <c r="B220">
-        <v>0.8660611007160558</v>
+        <v>1.949870801033592</v>
       </c>
       <c r="C220">
-        <v>0.8441484077238489</v>
+        <v>1.864544420984246</v>
       </c>
       <c r="D220">
-        <v>0.8093555126211457</v>
+        <v>1.737648295539871</v>
       </c>
       <c r="E220">
-        <v>0.7774614165075873</v>
+        <v>1.595349496668085</v>
       </c>
       <c r="F220">
-        <v>0.7330646579566317</v>
+        <v>1.429218271407644</v>
       </c>
       <c r="G220">
-        <v>0.6835919134931829</v>
+        <v>1.285147532853955</v>
       </c>
       <c r="H220">
-        <v>0.6464649383196671</v>
+        <v>1.192079897805133</v>
       </c>
       <c r="I220">
-        <v>0.6155489194890718</v>
+        <v>1.111266094420601</v>
       </c>
       <c r="J220">
-        <v>0.5855069147854383</v>
+        <v>1.05026455026455</v>
       </c>
     </row>
     <row r="221" spans="1:10">
@@ -8190,31 +8187,31 @@
         <v>229</v>
       </c>
       <c r="B221">
-        <v>1.949870801033592</v>
+        <v>0.5829318284664733</v>
       </c>
       <c r="C221">
-        <v>1.864544420984246</v>
+        <v>0.5581681548008693</v>
       </c>
       <c r="D221">
-        <v>1.737648295539871</v>
+        <v>0.5204073857719758</v>
       </c>
       <c r="E221">
-        <v>1.595349496668085</v>
+        <v>0.4921393034825871</v>
       </c>
       <c r="F221">
-        <v>1.429218271407644</v>
+        <v>0.4567797222155357</v>
       </c>
       <c r="G221">
-        <v>1.285147532853955</v>
+        <v>0.4118461751535017</v>
       </c>
       <c r="H221">
-        <v>1.192079897805133</v>
+        <v>0.3862834543043976</v>
       </c>
       <c r="I221">
-        <v>1.111266094420601</v>
+        <v>0.368616001394457</v>
       </c>
       <c r="J221">
-        <v>1.05026455026455</v>
+        <v>0.3509803921568627</v>
       </c>
     </row>
     <row r="222" spans="1:10">
@@ -8222,31 +8219,31 @@
         <v>230</v>
       </c>
       <c r="B222">
-        <v>0.5829318284664733</v>
+        <v>0.4019474538356945</v>
       </c>
       <c r="C222">
-        <v>0.5581681548008693</v>
+        <v>0.3863793103448276</v>
       </c>
       <c r="D222">
-        <v>0.5204073857719758</v>
+        <v>0.3596613168204221</v>
       </c>
       <c r="E222">
-        <v>0.4921393034825871</v>
+        <v>0.3408996424711067</v>
       </c>
       <c r="F222">
-        <v>0.4567797222155357</v>
+        <v>0.3161376735124604</v>
       </c>
       <c r="G222">
-        <v>0.4118461751535017</v>
+        <v>0.2896412609263141</v>
       </c>
       <c r="H222">
-        <v>0.3862834543043976</v>
+        <v>0.2632595511260478</v>
       </c>
       <c r="I222">
-        <v>0.368616001394457</v>
+        <v>0.2460713348085362</v>
       </c>
       <c r="J222">
-        <v>0.3509803921568627</v>
+        <v>0.234095391132861</v>
       </c>
     </row>
     <row r="223" spans="1:10">
@@ -8254,31 +8251,31 @@
         <v>231</v>
       </c>
       <c r="B223">
-        <v>0.4019474538356945</v>
+        <v>0.5505507788446188</v>
       </c>
       <c r="C223">
-        <v>0.3863793103448276</v>
+        <v>0.5266728060915074</v>
       </c>
       <c r="D223">
-        <v>0.3596613168204221</v>
+        <v>0.4988542722425418</v>
       </c>
       <c r="E223">
-        <v>0.3408996424711067</v>
+        <v>0.4687412027111891</v>
       </c>
       <c r="F223">
-        <v>0.3161376735124604</v>
+        <v>0.4369117647058823</v>
       </c>
       <c r="G223">
-        <v>0.2896412609263141</v>
+        <v>0.4037927655752429</v>
       </c>
       <c r="H223">
-        <v>0.2632595511260478</v>
+        <v>0.3760976097609761</v>
       </c>
       <c r="I223">
-        <v>0.2460713348085362</v>
+        <v>0.3508878166936886</v>
       </c>
       <c r="J223">
-        <v>0.234095391132861</v>
+        <v>0.3270790784676758</v>
       </c>
     </row>
     <row r="224" spans="1:10">
@@ -8286,31 +8283,31 @@
         <v>232</v>
       </c>
       <c r="B224">
-        <v>0.5505507788446188</v>
+        <v>0.8298511700541845</v>
       </c>
       <c r="C224">
-        <v>0.5266728060915074</v>
+        <v>0.8137971014492754</v>
       </c>
       <c r="D224">
-        <v>0.4988542722425418</v>
+        <v>0.7750224618149146</v>
       </c>
       <c r="E224">
-        <v>0.4687412027111891</v>
+        <v>0.7455106312658367</v>
       </c>
       <c r="F224">
-        <v>0.4369117647058823</v>
+        <v>0.7008484900297078</v>
       </c>
       <c r="G224">
-        <v>0.4037927655752429</v>
+        <v>0.6466514117598987</v>
       </c>
       <c r="H224">
-        <v>0.3760976097609761</v>
+        <v>0.6118120964397844</v>
       </c>
       <c r="I224">
-        <v>0.3508878166936886</v>
+        <v>0.5866691986327384</v>
       </c>
       <c r="J224">
-        <v>0.3270790784676758</v>
+        <v>0.5622411960863352</v>
       </c>
     </row>
     <row r="225" spans="1:10">
@@ -8318,31 +8315,31 @@
         <v>233</v>
       </c>
       <c r="B225">
-        <v>0.8298511700541845</v>
+        <v>0.5585782868693675</v>
       </c>
       <c r="C225">
-        <v>0.8137971014492754</v>
+        <v>0.5332948263058008</v>
       </c>
       <c r="D225">
-        <v>0.7750224618149146</v>
+        <v>0.502955572792682</v>
       </c>
       <c r="E225">
-        <v>0.7455106312658367</v>
+        <v>0.474316280777198</v>
       </c>
       <c r="F225">
-        <v>0.7008484900297078</v>
+        <v>0.441928859366681</v>
       </c>
       <c r="G225">
-        <v>0.6466514117598987</v>
+        <v>0.4024998788818371</v>
       </c>
       <c r="H225">
-        <v>0.6118120964397844</v>
+        <v>0.3735708525072347</v>
       </c>
       <c r="I225">
-        <v>0.5866691986327384</v>
+        <v>0.3491182835305493</v>
       </c>
       <c r="J225">
-        <v>0.5622411960863352</v>
+        <v>0.3248514740499944</v>
       </c>
     </row>
     <row r="226" spans="1:10">
@@ -8350,31 +8347,31 @@
         <v>234</v>
       </c>
       <c r="B226">
-        <v>0.5585782868693675</v>
+        <v>0.3520500475328897</v>
       </c>
       <c r="C226">
-        <v>0.5332948263058008</v>
+        <v>0.3354969820134066</v>
       </c>
       <c r="D226">
-        <v>0.502955572792682</v>
+        <v>0.3135043447208666</v>
       </c>
       <c r="E226">
-        <v>0.474316280777198</v>
+        <v>0.2952394945636203</v>
       </c>
       <c r="F226">
-        <v>0.441928859366681</v>
+        <v>0.2701702017737723</v>
       </c>
       <c r="G226">
-        <v>0.4024998788818371</v>
+        <v>0.2459121782150544</v>
       </c>
       <c r="H226">
-        <v>0.3735708525072347</v>
+        <v>0.2257860944959666</v>
       </c>
       <c r="I226">
-        <v>0.3491182835305493</v>
+        <v>0.210250594080795</v>
       </c>
       <c r="J226">
-        <v>0.3248514740499944</v>
+        <v>0.194340075145895</v>
       </c>
     </row>
     <row r="227" spans="1:10">
@@ -8382,31 +8379,31 @@
         <v>235</v>
       </c>
       <c r="B227">
-        <v>0.3520500475328897</v>
+        <v>0.8822816382666263</v>
       </c>
       <c r="C227">
-        <v>0.3354969820134066</v>
+        <v>0.8455450022614202</v>
       </c>
       <c r="D227">
-        <v>0.3135043447208666</v>
+        <v>0.8086952710698163</v>
       </c>
       <c r="E227">
-        <v>0.2952394945636203</v>
+        <v>0.7787953654796388</v>
       </c>
       <c r="F227">
-        <v>0.2701702017737723</v>
+        <v>0.7290552584670231</v>
       </c>
       <c r="G227">
-        <v>0.2459121782150544</v>
+        <v>0.6806244586187888</v>
       </c>
       <c r="H227">
-        <v>0.2257860944959666</v>
+        <v>0.6413210009646485</v>
       </c>
       <c r="I227">
-        <v>0.210250594080795</v>
+        <v>0.6032475434549649</v>
       </c>
       <c r="J227">
-        <v>0.194340075145895</v>
+        <v>0.5635642110415719</v>
       </c>
     </row>
     <row r="228" spans="1:10">
@@ -8414,31 +8411,31 @@
         <v>236</v>
       </c>
       <c r="B228">
-        <v>0.8822816382666263</v>
+        <v>0.3197046109510087</v>
       </c>
       <c r="C228">
-        <v>0.8455450022614202</v>
+        <v>0.3081547214370058</v>
       </c>
       <c r="D228">
-        <v>0.8086952710698163</v>
+        <v>0.2864469893908522</v>
       </c>
       <c r="E228">
-        <v>0.7787953654796388</v>
+        <v>0.2650345742823217</v>
       </c>
       <c r="F228">
-        <v>0.7290552584670231</v>
+        <v>0.2449308124400603</v>
       </c>
       <c r="G228">
-        <v>0.6806244586187888</v>
+        <v>0.2238617060253806</v>
       </c>
       <c r="H228">
-        <v>0.6413210009646485</v>
+        <v>0.2052006041105785</v>
       </c>
       <c r="I228">
-        <v>0.6032475434549649</v>
+        <v>0.1927922077922078</v>
       </c>
       <c r="J228">
-        <v>0.5635642110415719</v>
+        <v>0.1807609980511805</v>
       </c>
     </row>
     <row r="229" spans="1:10">
@@ -8446,31 +8443,31 @@
         <v>237</v>
       </c>
       <c r="B229">
-        <v>0.3197046109510087</v>
+        <v>1.385865619123862</v>
       </c>
       <c r="C229">
-        <v>0.3081547214370058</v>
+        <v>1.342069735207819</v>
       </c>
       <c r="D229">
-        <v>0.2864469893908522</v>
+        <v>1.290045287533111</v>
       </c>
       <c r="E229">
-        <v>0.2650345742823217</v>
+        <v>1.232307156711593</v>
       </c>
       <c r="F229">
-        <v>0.2449308124400603</v>
+        <v>1.161535658263749</v>
       </c>
       <c r="G229">
-        <v>0.2238617060253806</v>
+        <v>1.085175396444017</v>
       </c>
       <c r="H229">
-        <v>0.2052006041105785</v>
+        <v>1.053798961774422</v>
       </c>
       <c r="I229">
-        <v>0.1927922077922078</v>
+        <v>1.029621062657324</v>
       </c>
       <c r="J229">
-        <v>0.1807609980511805</v>
+        <v>1.007903402854007</v>
       </c>
     </row>
     <row r="230" spans="1:10">
@@ -8478,31 +8475,31 @@
         <v>238</v>
       </c>
       <c r="B230">
-        <v>1.385865619123862</v>
+        <v>0.4240161630358398</v>
       </c>
       <c r="C230">
-        <v>1.342069735207819</v>
+        <v>0.3914381001667529</v>
       </c>
       <c r="D230">
-        <v>1.290045287533111</v>
+        <v>0.3669956263317259</v>
       </c>
       <c r="E230">
-        <v>1.232307156711593</v>
+        <v>0.349986229688791</v>
       </c>
       <c r="F230">
-        <v>1.161535658263749</v>
+        <v>0.3235601532977783</v>
       </c>
       <c r="G230">
-        <v>1.085175396444017</v>
+        <v>0.2974413370242931</v>
       </c>
       <c r="H230">
-        <v>1.053798961774422</v>
+        <v>0.2747705610193917</v>
       </c>
       <c r="I230">
-        <v>1.029621062657324</v>
+        <v>0.2662292987370387</v>
       </c>
       <c r="J230">
-        <v>1.007903402854007</v>
+        <v>0.2625428071940034</v>
       </c>
     </row>
     <row r="231" spans="1:10">
@@ -8510,31 +8507,31 @@
         <v>239</v>
       </c>
       <c r="B231">
-        <v>0.4240161630358398</v>
+        <v>1.90526764916165</v>
       </c>
       <c r="C231">
-        <v>0.3914381001667529</v>
+        <v>1.854612529724204</v>
       </c>
       <c r="D231">
-        <v>0.3669956263317259</v>
+        <v>1.759167409426938</v>
       </c>
       <c r="E231">
-        <v>0.349986229688791</v>
+        <v>1.688141568105115</v>
       </c>
       <c r="F231">
-        <v>0.3235601532977783</v>
+        <v>1.587796191652025</v>
       </c>
       <c r="G231">
-        <v>0.2974413370242931</v>
+        <v>1.471462259969148</v>
       </c>
       <c r="H231">
-        <v>0.2747705610193917</v>
+        <v>1.367265435427339</v>
       </c>
       <c r="I231">
-        <v>0.2662292987370387</v>
+        <v>1.269425265387709</v>
       </c>
       <c r="J231">
-        <v>0.2625428071940034</v>
+        <v>1.170729144778315</v>
       </c>
     </row>
     <row r="232" spans="1:10">
@@ -8542,31 +8539,31 @@
         <v>240</v>
       </c>
       <c r="B232">
-        <v>1.90526764916165</v>
+        <v>0.3017513459991336</v>
       </c>
       <c r="C232">
-        <v>1.854612529724204</v>
+        <v>0.3005257366426213</v>
       </c>
       <c r="D232">
-        <v>1.759167409426938</v>
+        <v>0.293519079345851</v>
       </c>
       <c r="E232">
-        <v>1.688141568105115</v>
+        <v>0.2767727930535456</v>
       </c>
       <c r="F232">
-        <v>1.587796191652025</v>
+        <v>0.253425466572171</v>
       </c>
       <c r="G232">
-        <v>1.471462259969148</v>
+        <v>0.2227734194739271</v>
       </c>
       <c r="H232">
-        <v>1.367265435427339</v>
+        <v>0.2050090661831369</v>
       </c>
       <c r="I232">
-        <v>1.269425265387709</v>
+        <v>0.1977832237941406</v>
       </c>
       <c r="J232">
-        <v>1.170729144778315</v>
+        <v>0.1887830111625374</v>
       </c>
     </row>
     <row r="233" spans="1:10">
@@ -8574,31 +8571,31 @@
         <v>241</v>
       </c>
       <c r="B233">
-        <v>0.3017513459991336</v>
+        <v>0.4098806701131107</v>
       </c>
       <c r="C233">
-        <v>0.3005257366426213</v>
+        <v>0.3958860162294773</v>
       </c>
       <c r="D233">
-        <v>0.293519079345851</v>
+        <v>0.3721590909090909</v>
       </c>
       <c r="E233">
-        <v>0.2767727930535456</v>
+        <v>0.3436989125026654</v>
       </c>
       <c r="F233">
-        <v>0.253425466572171</v>
+        <v>0.3187532288617186</v>
       </c>
       <c r="G233">
-        <v>0.2227734194739271</v>
+        <v>0.2913745204392115</v>
       </c>
       <c r="H233">
-        <v>0.2050090661831369</v>
+        <v>0.2658614113159568</v>
       </c>
       <c r="I233">
-        <v>0.1977832237941406</v>
+        <v>0.2453948373300748</v>
       </c>
       <c r="J233">
-        <v>0.1887830111625374</v>
+        <v>0.2265087289161965</v>
       </c>
     </row>
     <row r="234" spans="1:10">
@@ -8606,31 +8603,31 @@
         <v>242</v>
       </c>
       <c r="B234">
-        <v>0.4098806701131107</v>
+        <v>0.5719924121894505</v>
       </c>
       <c r="C234">
-        <v>0.3958860162294773</v>
+        <v>0.5955069500014819</v>
       </c>
       <c r="D234">
-        <v>0.3721590909090909</v>
+        <v>0.5820671760126856</v>
       </c>
       <c r="E234">
-        <v>0.3436989125026654</v>
+        <v>0.5557156173205661</v>
       </c>
       <c r="F234">
-        <v>0.3187532288617186</v>
+        <v>0.5288617550807139</v>
       </c>
       <c r="G234">
-        <v>0.2913745204392115</v>
+        <v>0.4927788778877888</v>
       </c>
       <c r="H234">
-        <v>0.2658614113159568</v>
+        <v>0.467139907072793</v>
       </c>
       <c r="I234">
-        <v>0.2453948373300748</v>
+        <v>0.4441303415028143</v>
       </c>
       <c r="J234">
-        <v>0.2265087289161965</v>
+        <v>0.4205671671082328</v>
       </c>
     </row>
     <row r="235" spans="1:10">
@@ -8638,31 +8635,31 @@
         <v>243</v>
       </c>
       <c r="B235">
-        <v>0.5719924121894505</v>
+        <v>0.9899902238838039</v>
       </c>
       <c r="C235">
-        <v>0.5955069500014819</v>
+        <v>0.9562298660006926</v>
       </c>
       <c r="D235">
-        <v>0.5820671760126856</v>
+        <v>0.8966230013194929</v>
       </c>
       <c r="E235">
-        <v>0.5557156173205661</v>
+        <v>0.846553329324825</v>
       </c>
       <c r="F235">
-        <v>0.5288617550807139</v>
+        <v>0.7917304462320817</v>
       </c>
       <c r="G235">
-        <v>0.4927788778877888</v>
+        <v>0.7357330836636808</v>
       </c>
       <c r="H235">
-        <v>0.467139907072793</v>
+        <v>0.6870395316030081</v>
       </c>
       <c r="I235">
-        <v>0.4441303415028143</v>
+        <v>0.6439175266079114</v>
       </c>
       <c r="J235">
-        <v>0.4205671671082328</v>
+        <v>0.603150758652197</v>
       </c>
     </row>
     <row r="236" spans="1:10">
@@ -8670,31 +8667,31 @@
         <v>244</v>
       </c>
       <c r="B236">
-        <v>0.9899902238838039</v>
+        <v>0.307824163671551</v>
       </c>
       <c r="C236">
-        <v>0.9562298660006926</v>
+        <v>0.3004810320323603</v>
       </c>
       <c r="D236">
-        <v>0.8966230013194929</v>
+        <v>0.2881988903115664</v>
       </c>
       <c r="E236">
-        <v>0.846553329324825</v>
+        <v>0.2734490010515247</v>
       </c>
       <c r="F236">
-        <v>0.7917304462320817</v>
+        <v>0.2544363654853308</v>
       </c>
       <c r="G236">
-        <v>0.7357330836636808</v>
+        <v>0.2335020439945494</v>
       </c>
       <c r="H236">
-        <v>0.6870395316030081</v>
+        <v>0.198718253026347</v>
       </c>
       <c r="I236">
-        <v>0.6439175266079114</v>
+        <v>0.1799052396878484</v>
       </c>
       <c r="J236">
-        <v>0.603150758652197</v>
+        <v>0.1633552099253799</v>
       </c>
     </row>
     <row r="237" spans="1:10">
@@ -8702,31 +8699,31 @@
         <v>245</v>
       </c>
       <c r="B237">
-        <v>0.307824163671551</v>
+        <v>0.4076310070031393</v>
       </c>
       <c r="C237">
-        <v>0.3004810320323603</v>
+        <v>0.3887823585810163</v>
       </c>
       <c r="D237">
-        <v>0.2881988903115664</v>
+        <v>0.3635024042190166</v>
       </c>
       <c r="E237">
-        <v>0.2734490010515247</v>
+        <v>0.3421770770163736</v>
       </c>
       <c r="F237">
-        <v>0.2544363654853308</v>
+        <v>0.3088615066774884</v>
       </c>
       <c r="G237">
-        <v>0.2335020439945494</v>
+        <v>0.2741981265966506</v>
       </c>
       <c r="H237">
-        <v>0.198718253026347</v>
+        <v>0.2442520775623269</v>
       </c>
       <c r="I237">
-        <v>0.1799052396878484</v>
+        <v>0.2218055183498527</v>
       </c>
       <c r="J237">
-        <v>0.1633552099253799</v>
+        <v>0.2051348047101216</v>
       </c>
     </row>
     <row r="238" spans="1:10">
@@ -8734,31 +8731,31 @@
         <v>246</v>
       </c>
       <c r="B238">
-        <v>0.4076310070031393</v>
+        <v>0.3234018830525273</v>
       </c>
       <c r="C238">
-        <v>0.3887823585810163</v>
+        <v>0.3135295206366833</v>
       </c>
       <c r="D238">
-        <v>0.3635024042190166</v>
+        <v>0.2947406426766157</v>
       </c>
       <c r="E238">
-        <v>0.3421770770163736</v>
+        <v>0.2760030818467374</v>
       </c>
       <c r="F238">
-        <v>0.3088615066774884</v>
+        <v>0.2498841519925857</v>
       </c>
       <c r="G238">
-        <v>0.2741981265966506</v>
+        <v>0.224658924343218</v>
       </c>
       <c r="H238">
-        <v>0.2442520775623269</v>
+        <v>0.2052556034006845</v>
       </c>
       <c r="I238">
-        <v>0.2218055183498527</v>
+        <v>0.191027027027027</v>
       </c>
       <c r="J238">
-        <v>0.2051348047101216</v>
+        <v>0.1751801778105108</v>
       </c>
     </row>
     <row r="239" spans="1:10">
@@ -8766,31 +8763,31 @@
         <v>247</v>
       </c>
       <c r="B239">
-        <v>0.3234018830525273</v>
+        <v>0.4033683048039757</v>
       </c>
       <c r="C239">
-        <v>0.3135295206366833</v>
+        <v>0.3867159008023341</v>
       </c>
       <c r="D239">
-        <v>0.2947406426766157</v>
+        <v>0.367484880825329</v>
       </c>
       <c r="E239">
-        <v>0.2760030818467374</v>
+        <v>0.3482127212195549</v>
       </c>
       <c r="F239">
-        <v>0.2498841519925857</v>
+        <v>0.3240612562727115</v>
       </c>
       <c r="G239">
-        <v>0.224658924343218</v>
+        <v>0.2894459658731831</v>
       </c>
       <c r="H239">
-        <v>0.2052556034006845</v>
+        <v>0.2571214392803598</v>
       </c>
       <c r="I239">
-        <v>0.191027027027027</v>
+        <v>0.2336539632290272</v>
       </c>
       <c r="J239">
-        <v>0.1751801778105108</v>
+        <v>0.2145499383477189</v>
       </c>
     </row>
     <row r="240" spans="1:10">
@@ -8798,31 +8795,31 @@
         <v>248</v>
       </c>
       <c r="B240">
-        <v>0.4033683048039757</v>
+        <v>0.4534934817635858</v>
       </c>
       <c r="C240">
-        <v>0.3867159008023341</v>
+        <v>0.431186537636459</v>
       </c>
       <c r="D240">
-        <v>0.367484880825329</v>
+        <v>0.3985774986144467</v>
       </c>
       <c r="E240">
-        <v>0.3482127212195549</v>
+        <v>0.3715429239555695</v>
       </c>
       <c r="F240">
-        <v>0.3240612562727115</v>
+        <v>0.3467861827721906</v>
       </c>
       <c r="G240">
-        <v>0.2894459658731831</v>
+        <v>0.3203048909591362</v>
       </c>
       <c r="H240">
-        <v>0.2571214392803598</v>
+        <v>0.2958395000822233</v>
       </c>
       <c r="I240">
-        <v>0.2336539632290272</v>
+        <v>0.2746804890594706</v>
       </c>
       <c r="J240">
-        <v>0.2145499383477189</v>
+        <v>0.2565960249506025</v>
       </c>
     </row>
     <row r="241" spans="1:10">
@@ -8830,31 +8827,31 @@
         <v>249</v>
       </c>
       <c r="B241">
-        <v>0.4534934817635858</v>
+        <v>0.7583069925217794</v>
       </c>
       <c r="C241">
-        <v>0.431186537636459</v>
+        <v>0.7401455999396477</v>
       </c>
       <c r="D241">
-        <v>0.3985774986144467</v>
+        <v>0.6867021084228419</v>
       </c>
       <c r="E241">
-        <v>0.3715429239555695</v>
+        <v>0.6299165673420739</v>
       </c>
       <c r="F241">
-        <v>0.3467861827721906</v>
+        <v>0.5769373377827215</v>
       </c>
       <c r="G241">
-        <v>0.3203048909591362</v>
+        <v>0.5195784588610655</v>
       </c>
       <c r="H241">
-        <v>0.2958395000822233</v>
+        <v>0.480147881197962</v>
       </c>
       <c r="I241">
-        <v>0.2746804890594706</v>
+        <v>0.4490432612312812</v>
       </c>
       <c r="J241">
-        <v>0.2565960249506025</v>
+        <v>0.4119674185463659</v>
       </c>
     </row>
     <row r="242" spans="1:10">
@@ -8862,31 +8859,31 @@
         <v>250</v>
       </c>
       <c r="B242">
-        <v>0.7583069925217794</v>
+        <v>0.7849462365591398</v>
       </c>
       <c r="C242">
-        <v>0.7401455999396477</v>
+        <v>0.7569869856710925</v>
       </c>
       <c r="D242">
-        <v>0.6867021084228419</v>
+        <v>0.6968794959567396</v>
       </c>
       <c r="E242">
-        <v>0.6299165673420739</v>
+        <v>0.6445004198152813</v>
       </c>
       <c r="F242">
-        <v>0.5769373377827215</v>
+        <v>0.5972865270771428</v>
       </c>
       <c r="G242">
-        <v>0.5195784588610655</v>
+        <v>0.5414985085102649</v>
       </c>
       <c r="H242">
-        <v>0.480147881197962</v>
+        <v>0.4915054915054915</v>
       </c>
       <c r="I242">
-        <v>0.4490432612312812</v>
+        <v>0.461248546569905</v>
       </c>
       <c r="J242">
-        <v>0.4119674185463659</v>
+        <v>0.4278117827084927</v>
       </c>
     </row>
     <row r="243" spans="1:10">
@@ -8894,31 +8891,31 @@
         <v>251</v>
       </c>
       <c r="B243">
-        <v>0.7849462365591398</v>
+        <v>1.021624923640806</v>
       </c>
       <c r="C243">
-        <v>0.7569869856710925</v>
+        <v>0.9895734597156398</v>
       </c>
       <c r="D243">
-        <v>0.6968794959567396</v>
+        <v>0.9270516717325228</v>
       </c>
       <c r="E243">
-        <v>0.6445004198152813</v>
+        <v>0.859081532949734</v>
       </c>
       <c r="F243">
-        <v>0.5972865270771428</v>
+        <v>0.7974513054289266</v>
       </c>
       <c r="G243">
-        <v>0.5414985085102649</v>
+        <v>0.7291956305858988</v>
       </c>
       <c r="H243">
-        <v>0.4915054915054915</v>
+        <v>0.65937794533459</v>
       </c>
       <c r="I243">
-        <v>0.461248546569905</v>
+        <v>0.6302372761753551</v>
       </c>
       <c r="J243">
-        <v>0.4278117827084927</v>
+        <v>0.5861349795611913</v>
       </c>
     </row>
     <row r="244" spans="1:10">
@@ -8926,31 +8923,31 @@
         <v>252</v>
       </c>
       <c r="B244">
-        <v>1.021624923640806</v>
+        <v>0.8276673940507637</v>
       </c>
       <c r="C244">
-        <v>0.9895734597156398</v>
+        <v>0.819137632123483</v>
       </c>
       <c r="D244">
-        <v>0.9270516717325228</v>
+        <v>0.8221594542741419</v>
       </c>
       <c r="E244">
-        <v>0.859081532949734</v>
+        <v>0.8334442340175052</v>
       </c>
       <c r="F244">
-        <v>0.7974513054289266</v>
+        <v>0.8144968538120092</v>
       </c>
       <c r="G244">
-        <v>0.7291956305858988</v>
+        <v>0.7908224627625127</v>
       </c>
       <c r="H244">
-        <v>0.65937794533459</v>
+        <v>0.7619807598528173</v>
       </c>
       <c r="I244">
-        <v>0.6302372761753551</v>
+        <v>0.7190426201973547</v>
       </c>
       <c r="J244">
-        <v>0.5861349795611913</v>
+        <v>0.6788719857582133</v>
       </c>
     </row>
     <row r="245" spans="1:10">
@@ -8958,31 +8955,31 @@
         <v>253</v>
       </c>
       <c r="B245">
-        <v>0.8276673940507637</v>
+        <v>1.539353922612709</v>
       </c>
       <c r="C245">
-        <v>0.819137632123483</v>
+        <v>1.477379771938523</v>
       </c>
       <c r="D245">
-        <v>0.8221594542741419</v>
+        <v>1.380015601544422</v>
       </c>
       <c r="E245">
-        <v>0.8334442340175052</v>
+        <v>1.294870585868492</v>
       </c>
       <c r="F245">
-        <v>0.8144968538120092</v>
+        <v>1.205818920452848</v>
       </c>
       <c r="G245">
-        <v>0.7908224627625127</v>
+        <v>1.119712492202559</v>
       </c>
       <c r="H245">
-        <v>0.7619807598528173</v>
+        <v>1.046959207583342</v>
       </c>
       <c r="I245">
-        <v>0.7190426201973547</v>
+        <v>0.9757331655129012</v>
       </c>
       <c r="J245">
-        <v>0.6788719857582133</v>
+        <v>0.9109550535031968</v>
       </c>
     </row>
     <row r="246" spans="1:10">
@@ -8990,62 +8987,30 @@
         <v>254</v>
       </c>
       <c r="B246">
-        <v>1.539353922612709</v>
+        <v>0.858166295471418</v>
       </c>
       <c r="C246">
-        <v>1.477379771938523</v>
+        <v>0.8260199735377811</v>
       </c>
       <c r="D246">
-        <v>1.380015601544422</v>
+        <v>0.7624352197792738</v>
       </c>
       <c r="E246">
-        <v>1.294870585868492</v>
+        <v>0.7230110808838166</v>
       </c>
       <c r="F246">
-        <v>1.205818920452848</v>
+        <v>0.6711746153110962</v>
       </c>
       <c r="G246">
-        <v>1.119712492202559</v>
+        <v>0.6203108619353662</v>
       </c>
       <c r="H246">
-        <v>1.046959207583342</v>
+        <v>0.5739743179104912</v>
       </c>
       <c r="I246">
-        <v>0.9757331655129012</v>
+        <v>0.5359066802154818</v>
       </c>
       <c r="J246">
-        <v>0.9109550535031968</v>
-      </c>
-    </row>
-    <row r="247" spans="1:10">
-      <c r="A247" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B247">
-        <v>0.858166295471418</v>
-      </c>
-      <c r="C247">
-        <v>0.8260199735377811</v>
-      </c>
-      <c r="D247">
-        <v>0.7624352197792738</v>
-      </c>
-      <c r="E247">
-        <v>0.7230110808838166</v>
-      </c>
-      <c r="F247">
-        <v>0.6711746153110962</v>
-      </c>
-      <c r="G247">
-        <v>0.6203108619353662</v>
-      </c>
-      <c r="H247">
-        <v>0.5739743179104912</v>
-      </c>
-      <c r="I247">
-        <v>0.5359066802154818</v>
-      </c>
-      <c r="J247">
         <v>0.5019308630757513</v>
       </c>
     </row>
